--- a/InputData/bldgs/CpUDSC/Cost per Unit Dist Solar Cap.xlsx
+++ b/InputData/bldgs/CpUDSC/Cost per Unit Dist Solar Cap.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\CpUDSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-texas\InputData\bldgs\CpUDSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F11FE36-41F2-4CC9-B172-CB91A4E38E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1260" windowWidth="21600" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="1260" windowWidth="21600" windowHeight="14550"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="DC to AC" sheetId="5" r:id="rId2"/>
-    <sheet name="NREL ATB" sheetId="7" r:id="rId3"/>
-    <sheet name="Soft Cost Data" sheetId="9" r:id="rId4"/>
-    <sheet name="CpUDSC-totalcost" sheetId="2" r:id="rId5"/>
-    <sheet name="CpUDSC-softcosts" sheetId="8" r:id="rId6"/>
+    <sheet name="Texas Notes" sheetId="10" r:id="rId2"/>
+    <sheet name="DC to AC" sheetId="5" r:id="rId3"/>
+    <sheet name="NREL ATB" sheetId="7" r:id="rId4"/>
+    <sheet name="Soft Cost Data" sheetId="9" r:id="rId5"/>
+    <sheet name="CpUDSC-totalcost" sheetId="2" r:id="rId6"/>
+    <sheet name="CpUDSC-softcosts" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>CpUDSC Cost per Unit Distributed Solar Capacity</t>
   </si>
@@ -142,15 +142,6 @@
     <t>Res PV - Daggett, CA - Conservative</t>
   </si>
   <si>
-    <t>Annual Technology Baseline 2020</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>We use the ATB "Moderate" case</t>
-  </si>
-  <si>
     <t>Solar PV</t>
   </si>
   <si>
@@ -169,27 +160,6 @@
     <t>Utility-Scale</t>
   </si>
   <si>
-    <t>Share of Costs that are Soft Costs</t>
-  </si>
-  <si>
-    <t>U.S. Solar Photovoltaic System Cost Benchmark: Q1 2018</t>
-  </si>
-  <si>
-    <t>https://www.nrel.gov/docs/fy17osti/68925.pdf</t>
-  </si>
-  <si>
-    <t>Page viii, Figure ES-2</t>
-  </si>
-  <si>
-    <t>"Soft costs" (non-hardware costs, such as the cost of installation)</t>
-  </si>
-  <si>
-    <t>are a subset of the total costs.  Soft costs are not subject to</t>
-  </si>
-  <si>
-    <t>reductions from endogenous learning.</t>
-  </si>
-  <si>
     <t>For distributed PV on buildings, we use the average</t>
   </si>
   <si>
@@ -206,14 +176,51 @@
   </si>
   <si>
     <t>Distributed Solar Total Cap Cost</t>
+  </si>
+  <si>
+    <t>EPS uses NREL's Annual Technology Basis for their cost numbers, which is a good source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATB uses a constant solar price across the whole US. </t>
+  </si>
+  <si>
+    <t>using this data from Energy Sage (based on quote data from the Energy Sage marketplace)</t>
+  </si>
+  <si>
+    <t>https://news.energysage.com/how-much-does-the-average-solar-panel-installation-cost-in-the-u-s/</t>
+  </si>
+  <si>
+    <t>$/W</t>
+  </si>
+  <si>
+    <t>U.S. average price for residential solar quotes</t>
+  </si>
+  <si>
+    <t>Texas average price for residential solar quotes</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>Texas weighting factor</t>
+  </si>
+  <si>
+    <t>So, I assumed that Texas solar costs will be 92.4% of the baseline EPS solar costs (for the whole US)</t>
+  </si>
+  <si>
+    <t>I updated the CSV to multiply the results by the factor in C9</t>
+  </si>
+  <si>
+    <t>Annual Technology Baseline 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -476,7 +483,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -491,6 +498,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -509,29 +524,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Body: normal cell" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: all except top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Header: top rows" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Body: normal cell" xfId="1"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
+    <cellStyle name="Footnotes: all except top row" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="4"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Header: top rows" xfId="6"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Section Break" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Section Break: parent row" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Table title" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Parent row" xfId="8"/>
+    <cellStyle name="Section Break" xfId="9"/>
+    <cellStyle name="Section Break: parent row" xfId="10"/>
+    <cellStyle name="Table title" xfId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,23 +633,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -674,23 +668,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -866,23 +843,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="50.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -890,150 +869,178 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <v>2015</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1" xr:uid="{1CA9C921-186B-4B9E-A32E-9A5AEB5517FB}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>3.02</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>2.79</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="21">
+        <f>B8/B7</f>
+        <v>0.92384105960264906</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.85899999999999999</v>
       </c>
@@ -1041,10 +1048,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
     </row>
   </sheetData>
@@ -1053,24 +1060,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.86328125" customWidth="1"/>
+    <col min="2" max="2" width="33.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C3">
         <v>2018</v>
       </c>
@@ -1171,7 +1178,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1278,7 +1285,7 @@
         <v>602.42092125560248</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -1382,7 +1389,7 @@
         <v>857.6570833640435</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -1486,7 +1493,7 @@
         <v>1124.6145820191289</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -1590,7 +1597,7 @@
         <v>602.42092125560248</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1694,7 +1701,7 @@
         <v>857.6570833640435</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -1798,7 +1805,7 @@
         <v>1124.6145820191289</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1902,7 +1909,7 @@
         <v>602.42092125560248</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -2006,7 +2013,7 @@
         <v>857.6570833640435</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -2110,7 +2117,7 @@
         <v>1124.6145820191289</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -2214,7 +2221,7 @@
         <v>602.42092125560248</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -2318,7 +2325,7 @@
         <v>857.6570833640435</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -2422,7 +2429,7 @@
         <v>1124.6145820191289</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -2526,7 +2533,7 @@
         <v>602.42092125560248</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -2630,7 +2637,7 @@
         <v>857.6570833640435</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -2734,45 +2741,45 @@
         <v>1124.6145820191289</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2785,390 +2792,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF31DC84-8E1C-4B41-A58F-99DEB8033653}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="10">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B5" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" s="10">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="16">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="16">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="16">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="17">
+      <c r="B10" s="11">
         <f>AVERAGE(B4:B5)</f>
         <v>0.59499999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet3">
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A2,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>3255232.9117624536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A3,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>3078322.0757814161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A4,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>2901411.2398003791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A5,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>2724500.4038193417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2023</v>
-      </c>
-      <c r="B6" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A6,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>2547589.5678383047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2024</v>
-      </c>
-      <c r="B7" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A7,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>2370678.7318572667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2025</v>
-      </c>
-      <c r="B8" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A8,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>2193767.8958762302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2026</v>
-      </c>
-      <c r="B9" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A9,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>2016857.059895193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2027</v>
-      </c>
-      <c r="B10" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A10,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1839946.223914156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2028</v>
-      </c>
-      <c r="B11" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A11,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1663035.387933119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2029</v>
-      </c>
-      <c r="B12" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A12,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1486124.551952082</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2030</v>
-      </c>
-      <c r="B13" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A13,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1309213.7159710464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2031</v>
-      </c>
-      <c r="B14" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A14,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1293674.8627315189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2032</v>
-      </c>
-      <c r="B15" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A15,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1278136.009491991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2033</v>
-      </c>
-      <c r="B16" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A16,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1262597.1562524636</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2034</v>
-      </c>
-      <c r="B17" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A17,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1247058.3030129359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2035</v>
-      </c>
-      <c r="B18" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A18,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1231519.449773408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2036</v>
-      </c>
-      <c r="B19" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A19,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1215980.5965338806</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2037</v>
-      </c>
-      <c r="B20" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A20,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1200441.7432943531</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2038</v>
-      </c>
-      <c r="B21" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A21,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1184902.8900548255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2039</v>
-      </c>
-      <c r="B22" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A22,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1169364.0368152976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2040</v>
-      </c>
-      <c r="B23" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A23,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1153825.1835757701</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2041</v>
-      </c>
-      <c r="B24" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A24,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1138286.3303362424</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2042</v>
-      </c>
-      <c r="B25" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A25,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1122747.4770967148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2043</v>
-      </c>
-      <c r="B26" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A26,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1107208.6238571871</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2044</v>
-      </c>
-      <c r="B27" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A27,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1091669.7706176594</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2045</v>
-      </c>
-      <c r="B28" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A28,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1076130.9173781318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2046</v>
-      </c>
-      <c r="B29" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A29,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1060592.0641386043</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2047</v>
-      </c>
-      <c r="B30" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A30,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1045053.2108990765</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2048</v>
-      </c>
-      <c r="B31" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A31,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1029514.3576595489</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2049</v>
-      </c>
-      <c r="B32" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A32,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>1013975.5044200213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2050</v>
-      </c>
-      <c r="B33" s="7">
-        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A33,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3</f>
-        <v>998436.65118049306</v>
       </c>
     </row>
   </sheetData>
@@ -3177,314 +2868,634 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6139C14F-5B4F-4B7E-AF1C-C0A6186374FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3">
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A2,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>3007317.8224560418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A3,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>2843880.3282881295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A4,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>2680442.8341202182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A5,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>2517005.3399523059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A6,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>2353567.8457843941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2024</v>
+      </c>
+      <c r="B7" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A7,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>2190130.3516164818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A8,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>2026692.8574485704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2026</v>
+      </c>
+      <c r="B9" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A9,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1863255.3632806586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2027</v>
+      </c>
+      <c r="B10" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A10,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1699817.8691127468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2028</v>
+      </c>
+      <c r="B11" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A11,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1536380.3749448352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2029</v>
+      </c>
+      <c r="B12" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A12,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1372942.8807769234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2030</v>
+      </c>
+      <c r="B13" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A13,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1209505.3866090132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2031</v>
+      </c>
+      <c r="B14" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A14,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1195149.9559671981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2032</v>
+      </c>
+      <c r="B15" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A15,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1180794.5253253826</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2033</v>
+      </c>
+      <c r="B16" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A16,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1166439.0946835675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2034</v>
+      </c>
+      <c r="B17" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A17,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1152083.6640417522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2035</v>
+      </c>
+      <c r="B18" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A18,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1137728.2333999367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2036</v>
+      </c>
+      <c r="B19" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A19,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1123372.8027581216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2037</v>
+      </c>
+      <c r="B20" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A20,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1109017.3721163063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2038</v>
+      </c>
+      <c r="B21" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A21,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1094661.941474491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>2039</v>
+      </c>
+      <c r="B22" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A22,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1080306.5108326757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2040</v>
+      </c>
+      <c r="B23" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A23,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1065951.0801908604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>2041</v>
+      </c>
+      <c r="B24" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A24,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1051595.6495490451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2042</v>
+      </c>
+      <c r="B25" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A25,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1037240.21890723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2043</v>
+      </c>
+      <c r="B26" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A26,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1022884.7882654147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2044</v>
+      </c>
+      <c r="B27" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A27,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>1008529.3576235994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2045</v>
+      </c>
+      <c r="B28" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A28,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>994173.92698178405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2046</v>
+      </c>
+      <c r="B29" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A29,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>979818.49633996899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2047</v>
+      </c>
+      <c r="B30" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A30,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>965463.06569815357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2048</v>
+      </c>
+      <c r="B31" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A31,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>951107.63505633827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2049</v>
+      </c>
+      <c r="B32" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A32,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>936752.20441452309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2050</v>
+      </c>
+      <c r="B33" s="7">
+        <f>(INDEX('NREL ATB'!$C$11:$AI$11,1,MATCH('CpUDSC-totalcost'!A33,'NREL ATB'!$C$3:$AI$3,0))*1000)/'DC to AC'!$A$3*'Texas Notes'!$B$9</f>
+        <v>922396.77377270721</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>54</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2019</v>
       </c>
       <c r="B2" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B2</f>
-        <v>1936863.5824986598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B2*'Texas Notes'!$B$9</f>
+        <v>1653078.7917775339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2020</v>
       </c>
       <c r="B3" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B3</f>
-        <v>1831601.6350899425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B3*'Texas Notes'!$B$9</f>
+        <v>1563239.5824419567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2021</v>
       </c>
       <c r="B4" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B4</f>
-        <v>1726339.6876812256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B4*'Texas Notes'!$B$9</f>
+        <v>1473400.3731063802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2022</v>
       </c>
       <c r="B5" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B5</f>
-        <v>1621077.7402725082</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B5*'Texas Notes'!$B$9</f>
+        <v>1383561.1637708033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2023</v>
       </c>
       <c r="B6" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B6</f>
-        <v>1515815.7928637911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B6*'Texas Notes'!$B$9</f>
+        <v>1293721.9544352263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2024</v>
       </c>
       <c r="B7" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B7</f>
-        <v>1410553.8454550738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B7*'Texas Notes'!$B$9</f>
+        <v>1203882.7450996493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2025</v>
       </c>
       <c r="B8" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B8</f>
-        <v>1305291.8980463569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B8*'Texas Notes'!$B$9</f>
+        <v>1114043.5357640728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2026</v>
       </c>
       <c r="B9" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B9</f>
-        <v>1200029.9506376397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B9*'Texas Notes'!$B$9</f>
+        <v>1024204.3264284957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2027</v>
       </c>
       <c r="B10" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B10</f>
-        <v>1094768.0032289228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B10*'Texas Notes'!$B$9</f>
+        <v>934365.11709291895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2028</v>
       </c>
       <c r="B11" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B11</f>
-        <v>989506.05582020571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B11*'Texas Notes'!$B$9</f>
+        <v>844525.90775734233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2029</v>
       </c>
       <c r="B12" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B12</f>
-        <v>884244.10841148871</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B12*'Texas Notes'!$B$9</f>
+        <v>754686.69842176547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2030</v>
       </c>
       <c r="B13" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B13</f>
-        <v>778982.16100277251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B13*'Texas Notes'!$B$9</f>
+        <v>664847.48908618954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2031</v>
       </c>
       <c r="B14" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B14</f>
-        <v>769736.54332525376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B14*'Texas Notes'!$B$9</f>
+        <v>656956.51801435335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2032</v>
       </c>
       <c r="B15" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B15</f>
-        <v>760490.92564773466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B15*'Texas Notes'!$B$9</f>
+        <v>649065.54694251704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2033</v>
       </c>
       <c r="B16" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B16</f>
-        <v>751245.3079702158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B16*'Texas Notes'!$B$9</f>
+        <v>641174.57587068086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2034</v>
       </c>
       <c r="B17" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B17</f>
-        <v>741999.69029269682</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B17*'Texas Notes'!$B$9</f>
+        <v>633283.60479884455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2035</v>
       </c>
       <c r="B18" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B18</f>
-        <v>732754.07261517772</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B18*'Texas Notes'!$B$9</f>
+        <v>625392.63372700836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2036</v>
       </c>
       <c r="B19" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B19</f>
-        <v>723508.45493765885</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B19*'Texas Notes'!$B$9</f>
+        <v>617501.66265517217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2037</v>
       </c>
       <c r="B20" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B20</f>
-        <v>714262.83726014011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B20*'Texas Notes'!$B$9</f>
+        <v>609610.69158333587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2038</v>
       </c>
       <c r="B21" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B21</f>
-        <v>705017.21958262112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B21*'Texas Notes'!$B$9</f>
+        <v>601719.72051149968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2039</v>
       </c>
       <c r="B22" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B22</f>
-        <v>695771.60190510203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B22*'Texas Notes'!$B$9</f>
+        <v>593828.74943966337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2040</v>
       </c>
       <c r="B23" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B23</f>
-        <v>686525.98422758316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B23*'Texas Notes'!$B$9</f>
+        <v>585937.77836782706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2041</v>
       </c>
       <c r="B24" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B24</f>
-        <v>677280.36655006418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B24*'Texas Notes'!$B$9</f>
+        <v>578046.80729599087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2042</v>
       </c>
       <c r="B25" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B25</f>
-        <v>668034.74887254531</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B25*'Texas Notes'!$B$9</f>
+        <v>570155.83622415469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2043</v>
       </c>
       <c r="B26" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B26</f>
-        <v>658789.13119502633</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B26*'Texas Notes'!$B$9</f>
+        <v>562264.86515231838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2044</v>
       </c>
       <c r="B27" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B27</f>
-        <v>649543.51351750735</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B27*'Texas Notes'!$B$9</f>
+        <v>554373.89408048207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2045</v>
       </c>
       <c r="B28" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B28</f>
-        <v>640297.89583998837</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B28*'Texas Notes'!$B$9</f>
+        <v>546482.923008646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2046</v>
       </c>
       <c r="B29" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B29</f>
-        <v>631052.27816246951</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B29*'Texas Notes'!$B$9</f>
+        <v>538591.95193680981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2047</v>
       </c>
       <c r="B30" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B30</f>
-        <v>621806.66048495052</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B30*'Texas Notes'!$B$9</f>
+        <v>530700.98086497351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2048</v>
       </c>
       <c r="B31" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B31</f>
-        <v>612561.04280743154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B31*'Texas Notes'!$B$9</f>
+        <v>522810.0097931372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2049</v>
       </c>
       <c r="B32" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B32</f>
-        <v>603315.42512991268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B32*'Texas Notes'!$B$9</f>
+        <v>514919.03872130101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2050</v>
       </c>
       <c r="B33" s="7">
-        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B33</f>
-        <v>594069.80745239335</v>
+        <f>'Soft Cost Data'!$B$10*'CpUDSC-totalcost'!B33*'Texas Notes'!$B$9</f>
+        <v>507028.06764946447</v>
       </c>
     </row>
   </sheetData>
